--- a/src/test/resource/testdata/OpenCartTestData.xlsx
+++ b/src/test/resource/testdata/OpenCartTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6118738\GowthamAutomationLabs\Dec2023POMSeries\src\test\resource\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8D0F4A-47BB-465D-91A3-8BCD71375A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E7B47E-E617-4B23-95C0-736EBD6CEC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <t>gowtham@automation.com</t>
   </si>
   <si>
-    <t>9999999998</t>
+    <t>9999999999</t>
   </si>
 </sst>
 </file>
